--- a/public/reg.xlsx
+++ b/public/reg.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Py\C4C_Web\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550D612-710C-42E9-9361-349792E1DF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6528BE7-24AA-4BC1-A679-386DA7CA60DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,6 +28,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
+    <t>FirstName</t>
+  </si>
+  <si>
     <t>Surname</t>
   </si>
   <si>
@@ -131,22 +134,19 @@
   </si>
   <si>
     <t>Not Specified</t>
-  </si>
-  <si>
-    <t>FirstName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,15 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,101 +487,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="1022" width="8.5703125" customWidth="1"/>
-    <col min="1023" max="1025" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{A0A2CBAF-CE91-46DB-A50F-208563A83425}">
       <formula1>3</formula1>
-      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9364F8CB-AB5B-4694-9FE7-D61DEDB4BFEA}">
       <formula1>2</formula1>
-      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{D0AED352-5A8F-4875-ABED-EBF63D0EB8B5}">
       <formula1>9</formula1>
-      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{B10CC5CF-87A6-43F1-9440-552069FB56D2}">
       <formula1>37257</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FA83E4AF-BE52-4208-B04C-97C614718557}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D1</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{A8B71217-AD03-4D51-ACEE-CCF1AD7F9E37}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$14</xm:f>
           </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>F1</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D802D3E7-08BF-4844-8325-EB1586C86284}">
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$9</xm:f>
           </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>G1</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -591,132 +575,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367597FD-4FD6-4E09-BF0E-1ECF578B1D42}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="J1:J1048576 I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/reg.xlsx
+++ b/public/reg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6528BE7-24AA-4BC1-A679-386DA7CA60DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6AC0BC-5248-450D-BAC2-B800D5F663D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,6 +501,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -531,18 +533,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="H2" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{A0A2CBAF-CE91-46DB-A50F-208563A83425}">
+    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="This field is required" sqref="A1:A1048576" xr:uid="{A0A2CBAF-CE91-46DB-A50F-208563A83425}">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9364F8CB-AB5B-4694-9FE7-D61DEDB4BFEA}">
+    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="This field is required" sqref="B1:B1048576" xr:uid="{9364F8CB-AB5B-4694-9FE7-D61DEDB4BFEA}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{D0AED352-5A8F-4875-ABED-EBF63D0EB8B5}">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="This field is required" sqref="C1:C1048576" xr:uid="{D0AED352-5A8F-4875-ABED-EBF63D0EB8B5}">
       <formula1>9</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{B10CC5CF-87A6-43F1-9440-552069FB56D2}">
+    <dataValidation type="date" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Date Format" error="Insert date using dd/mm/yyyy eg 01/01/2002" sqref="H1:H1048576" xr:uid="{B10CC5CF-87A6-43F1-9440-552069FB56D2}">
       <formula1>37257</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/reg.xlsx
+++ b/public/reg.xlsx
@@ -1,146 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6AC0BC-5248-450D-BAC2-B800D5F663D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbria\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80403427-F42E-4C32-A575-D18A73BF9B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1350" windowWidth="19140" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="rem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>FirstName</t>
+    <t>first_name</t>
   </si>
   <si>
-    <t>Surname</t>
+    <t>surname</t>
   </si>
   <si>
-    <t>Mobile</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>Gender</t>
+    <t>password</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>email</t>
   </si>
   <si>
-    <t>Facility_Department</t>
-  </si>
-  <si>
-    <t>Cadre</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>id_no</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>Outpatient department (OPD)</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>Inpatient Service (IP)</t>
-  </si>
-  <si>
-    <t>Clinical officer</t>
-  </si>
-  <si>
-    <t>TRANS-GENDER</t>
-  </si>
-  <si>
-    <t>Medical Department</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>UNDEFINED</t>
-  </si>
-  <si>
-    <t>New Born Unit (NBU)</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Renal Unit</t>
-  </si>
-  <si>
-    <t>Laboratory Technologist</t>
-  </si>
-  <si>
-    <t>Mother and Child (MCH)</t>
-  </si>
-  <si>
-    <t>Cleaner</t>
-  </si>
-  <si>
-    <t>Paramedical Department</t>
-  </si>
-  <si>
-    <t>Waste Handler</t>
-  </si>
-  <si>
-    <t>Physical Medicine and Rehabilitation Department</t>
-  </si>
-  <si>
-    <t>VCT Counsellor</t>
-  </si>
-  <si>
-    <t>Operational Theatre Complex (OP)</t>
-  </si>
-  <si>
-    <t>Other-Specify</t>
-  </si>
-  <si>
-    <t>Pharmacy Department</t>
-  </si>
-  <si>
-    <t>Radiology Department (X-ray)</t>
-  </si>
-  <si>
-    <t>Dietary Department</t>
-  </si>
-  <si>
-    <t>Medical Record Department (MRD)</t>
-  </si>
-  <si>
-    <t>Not Specified</t>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,16 +52,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -165,19 +369,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,224 +879,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="H2" s="1"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="This field is required" sqref="A1:A1048576" xr:uid="{A0A2CBAF-CE91-46DB-A50F-208563A83425}">
-      <formula1>3</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="This field is required" sqref="B1:B1048576" xr:uid="{9364F8CB-AB5B-4694-9FE7-D61DEDB4BFEA}">
-      <formula1>2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="This field is required" sqref="C1:C1048576" xr:uid="{D0AED352-5A8F-4875-ABED-EBF63D0EB8B5}">
-      <formula1>9</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Date Format" error="Insert date using dd/mm/yyyy eg 01/01/2002" sqref="H1:H1048576" xr:uid="{B10CC5CF-87A6-43F1-9440-552069FB56D2}">
-      <formula1>37257</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FA83E4AF-BE52-4208-B04C-97C614718557}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{A8B71217-AD03-4D51-ACEE-CCF1AD7F9E37}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$1:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D802D3E7-08BF-4844-8325-EB1586C86284}">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$1:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367597FD-4FD6-4E09-BF0E-1ECF578B1D42}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>